--- a/wildlife/reports/Seychelles/richness/2025/richness.xlsx
+++ b/wildlife/reports/Seychelles/richness/2025/richness.xlsx
@@ -490,7 +490,7 @@
         <v>55.4</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
